--- a/data_year/zb/运输和邮电/运输线路质量.xlsx
+++ b/data_year/zb/运输和邮电/运输线路质量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,749 +488,435 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.9848</v>
+        <v>400.8229</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9325</v>
+        <v>12.424178</v>
       </c>
       <c r="D2" t="n">
-        <v>2.14079</v>
+        <v>2.9683617</v>
       </c>
       <c r="E2" t="n">
-        <v>36.4974367455</v>
+        <v>44.812887401</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83178</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>5.86559</v>
+        <v>6.6239019</v>
       </c>
       <c r="H2" t="n">
-        <v>131.5931</v>
+        <v>330.4709</v>
       </c>
       <c r="I2" t="n">
-        <v>78.3363137617</v>
+        <v>82.44810862849999</v>
       </c>
       <c r="J2" t="n">
-        <v>6.1367</v>
+        <v>6.229022</v>
       </c>
       <c r="K2" t="n">
-        <v>51.4284517075</v>
+        <v>50.1362907067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.8</v>
+        <v>410.6387</v>
       </c>
       <c r="C3" t="n">
-        <v>12.15</v>
+        <v>12.4612</v>
       </c>
       <c r="D3" t="n">
-        <v>2.264</v>
+        <v>2.988392</v>
       </c>
       <c r="E3" t="n">
-        <v>38.3</v>
+        <v>45.2445426841556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8845</v>
+        <v>3.41753</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9079</v>
+        <v>6.6049778</v>
       </c>
       <c r="H3" t="n">
-        <v>133.6044</v>
+        <v>345.359</v>
       </c>
       <c r="I3" t="n">
-        <v>78.6833922261484</v>
+        <v>84.1028865520956</v>
       </c>
       <c r="J3" t="n">
-        <v>6.3692</v>
+        <v>6.26484</v>
       </c>
       <c r="K3" t="n">
-        <v>52.4213991769547</v>
+        <v>50.2747728950663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.52</v>
+        <v>423.7508</v>
       </c>
       <c r="C4" t="n">
-        <v>12.16</v>
+        <v>12.499463</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3058</v>
+        <v>3.0661478</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7</v>
+        <v>46.248054764228</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0682</v>
+        <v>3.7299562</v>
       </c>
       <c r="G4" t="n">
-        <v>5.953</v>
+        <v>6.6297876</v>
       </c>
       <c r="H4" t="n">
-        <v>138.2926</v>
+        <v>360.96</v>
       </c>
       <c r="I4" t="n">
-        <v>78.34387038295939</v>
+        <v>85.1821400691161</v>
       </c>
       <c r="J4" t="n">
-        <v>6.3597</v>
+        <v>6.371861</v>
       </c>
       <c r="K4" t="n">
-        <v>52.3001644736842</v>
+        <v>50.9770779752698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.98</v>
+        <v>435.6218435</v>
       </c>
       <c r="C5" t="n">
-        <v>12.4</v>
+        <v>12.585297</v>
       </c>
       <c r="D5" t="n">
-        <v>2.3702</v>
+        <v>3.1854468</v>
       </c>
       <c r="E5" t="n">
-        <v>39.2</v>
+        <v>47.8402690141325</v>
       </c>
       <c r="F5" t="n">
-        <v>2.192</v>
+        <v>3.883964699999999</v>
       </c>
       <c r="G5" t="n">
-        <v>6.0446</v>
+        <v>6.6585052</v>
       </c>
       <c r="H5" t="n">
-        <v>143.8738</v>
+        <v>375.5567</v>
       </c>
       <c r="I5" t="n">
-        <v>79.4970714996132</v>
+        <v>86.2116318554168</v>
       </c>
       <c r="J5" t="n">
-        <v>6.0865</v>
+        <v>6.490044999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>49.0846774193548</v>
+        <v>51.5684691430007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187.07</v>
+        <v>446.3913</v>
       </c>
       <c r="C6" t="n">
-        <v>12.33</v>
+        <v>12.628002</v>
       </c>
       <c r="D6" t="n">
-        <v>2.3841</v>
+        <v>3.2545762</v>
       </c>
       <c r="E6" t="n">
-        <v>39.1</v>
+        <v>48.5835839607378</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2724</v>
+        <v>3.539593</v>
       </c>
       <c r="G6" t="n">
-        <v>6.1015</v>
+        <v>6.6989216</v>
       </c>
       <c r="H6" t="n">
-        <v>151.5826</v>
+        <v>390.0834</v>
       </c>
       <c r="I6" t="n">
-        <v>81.02988186240449</v>
+        <v>87.3859772804712</v>
       </c>
       <c r="J6" t="n">
-        <v>6.0842</v>
+        <v>6.536227999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>49.3446877534469</v>
+        <v>51.7597954133995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334.52</v>
+        <v>457.7295832</v>
       </c>
       <c r="C7" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.44972</v>
-      </c>
-      <c r="E7" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.41489</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.22</v>
-      </c>
+        <v>12.700109</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>159.1791</v>
+        <v>404.629</v>
       </c>
       <c r="I7" t="n">
-        <v>47.584329785962</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>6.1013</v>
+        <v>6.6257</v>
       </c>
       <c r="K7" t="n">
-        <v>49.4833738848337</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.6999</v>
+        <v>469.6263</v>
       </c>
       <c r="C8" t="n">
-        <v>12.338827</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.5244</v>
-      </c>
-      <c r="E8" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.563</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.3412</v>
-      </c>
+        <v>12.709864</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>228.2872</v>
+        <v>422.6543</v>
       </c>
       <c r="I8" t="n">
-        <v>66.03623547475711</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>6.1035</v>
+        <v>6.640911</v>
       </c>
       <c r="K8" t="n">
-        <v>49.4658041643667</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.3715</v>
+        <v>477.3468833</v>
       </c>
       <c r="C9" t="n">
-        <v>12.349518</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.5793858</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40.5331166610459</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.6526</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.3636503</v>
-      </c>
+        <v>12.701856</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>253.5383</v>
+        <v>433.8559717</v>
       </c>
       <c r="I9" t="n">
-        <v>70.7473390043572</v>
+        <v>90.88903413397441</v>
       </c>
       <c r="J9" t="n">
-        <v>6.119733</v>
+        <v>6.615975</v>
       </c>
       <c r="K9" t="n">
-        <v>49.5544279541922</v>
+        <v>52.0866793010407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0164</v>
+        <v>484.6531684</v>
       </c>
       <c r="C10" t="n">
-        <v>12.276349</v>
+        <v>12.712641</v>
       </c>
       <c r="D10" t="n">
-        <v>2.6598852</v>
+        <v>7.63463</v>
       </c>
       <c r="E10" t="n">
-        <v>41.5770226328195</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.81</v>
-      </c>
+        <v>57.9913015061</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>6.3974884</v>
+        <v>13.1651296</v>
       </c>
       <c r="H10" t="n">
-        <v>277.8521</v>
+        <v>446.5864244</v>
       </c>
       <c r="I10" t="n">
-        <v>74.4879045532583</v>
+        <v>92.14556997</v>
       </c>
       <c r="J10" t="n">
-        <v>6.1093</v>
+        <v>6.64423</v>
       </c>
       <c r="K10" t="n">
-        <v>49.7647957059546</v>
+        <v>52.2647497086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>386.0823</v>
+        <v>501.2495792</v>
       </c>
       <c r="C11" t="n">
-        <v>12.3683</v>
+        <v>12.729836</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8682</v>
+        <v>8.30439</v>
       </c>
       <c r="E11" t="n">
-        <v>43.7953306561207</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.1619</v>
-      </c>
+        <v>59.3482767525</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>6.5491</v>
+        <v>13.9926388</v>
       </c>
       <c r="H11" t="n">
-        <v>305.6265</v>
+        <v>469.8724598</v>
       </c>
       <c r="I11" t="n">
-        <v>79.1609716373944</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>6.154615</v>
+        <v>6.674881</v>
       </c>
       <c r="K11" t="n">
-        <v>49.7612040458268</v>
+        <v>52.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>400.8229</v>
+        <v>519.8120273</v>
       </c>
       <c r="C12" t="n">
-        <v>12.424178</v>
+        <v>12.768555</v>
       </c>
       <c r="D12" t="n">
-        <v>2.9683617</v>
+        <v>8.65868</v>
       </c>
       <c r="E12" t="n">
-        <v>44.812887401</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.75</v>
-      </c>
+        <v>59.1721043083866</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>6.6239019</v>
+        <v>14.6330439</v>
       </c>
       <c r="H12" t="n">
-        <v>330.4709</v>
+        <v>494.4488745</v>
       </c>
       <c r="I12" t="n">
-        <v>82.44810862849999</v>
+        <v>95.1207068193976</v>
       </c>
       <c r="J12" t="n">
-        <v>6.229022</v>
+        <v>6.726907</v>
       </c>
       <c r="K12" t="n">
-        <v>50.1362907067</v>
+        <v>52.6833850815539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.6387</v>
+        <v>528.0708078</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4612</v>
+        <v>12.764232</v>
       </c>
       <c r="D13" t="n">
-        <v>2.988392</v>
+        <v>8.9581397</v>
       </c>
       <c r="E13" t="n">
-        <v>45.2445426841556</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.41753</v>
-      </c>
+        <v>59.4281486542965</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>6.6049778</v>
+        <v>15.0739348</v>
       </c>
       <c r="H13" t="n">
-        <v>345.359</v>
+        <v>506.1898834</v>
       </c>
       <c r="I13" t="n">
-        <v>84.1028865520956</v>
+        <v>95.8564412050804</v>
       </c>
       <c r="J13" t="n">
-        <v>6.26484</v>
+        <v>6.720371</v>
       </c>
       <c r="K13" t="n">
-        <v>50.2747728950663</v>
+        <v>52.6500223436866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>423.7508</v>
+        <v>535.48368</v>
       </c>
       <c r="C14" t="n">
-        <v>12.499463</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.0661478</v>
-      </c>
-      <c r="E14" t="n">
-        <v>46.248054764228</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.7299562</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.6297876</v>
-      </c>
-      <c r="H14" t="n">
-        <v>360.96</v>
-      </c>
-      <c r="I14" t="n">
-        <v>85.1821400691161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.371861</v>
-      </c>
-      <c r="K14" t="n">
-        <v>50.9770779752698</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>435.6218435</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.585297</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.1854468</v>
-      </c>
-      <c r="E15" t="n">
-        <v>47.8402690141325</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.883964699999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.6585052</v>
-      </c>
-      <c r="H15" t="n">
-        <v>375.5567</v>
-      </c>
-      <c r="I15" t="n">
-        <v>86.2116318554168</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.490044999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>51.5684691430007</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>446.3913</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12.628002</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.2545762</v>
-      </c>
-      <c r="E16" t="n">
-        <v>48.5835839607378</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.539593</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.6989216</v>
-      </c>
-      <c r="H16" t="n">
-        <v>390.0834</v>
-      </c>
-      <c r="I16" t="n">
-        <v>87.3859772804712</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.536227999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>51.7597954133995</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>457.7296</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.7001</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>404.629</v>
-      </c>
-      <c r="I17" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.6257</v>
-      </c>
-      <c r="K17" t="n">
-        <v>52.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>469.6263</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12.709864</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>422.6543</v>
-      </c>
-      <c r="I18" t="n">
-        <v>90</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.640911</v>
-      </c>
-      <c r="K18" t="n">
-        <v>52.25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>477.3468833</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12.701856</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>433.8559717</v>
-      </c>
-      <c r="I19" t="n">
-        <v>90.88903413397441</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.615975</v>
-      </c>
-      <c r="K19" t="n">
-        <v>52.0866793010407</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>484.6531684</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12.712641</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.63463</v>
-      </c>
-      <c r="E20" t="n">
-        <v>57.9913015061</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>13.1651296</v>
-      </c>
-      <c r="H20" t="n">
-        <v>446.5864244</v>
-      </c>
-      <c r="I20" t="n">
-        <v>92.14556997</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.64423</v>
-      </c>
-      <c r="K20" t="n">
-        <v>52.2647497086</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>501.2495792</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12.729836</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8.30439</v>
-      </c>
-      <c r="E21" t="n">
-        <v>59.3482767525</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>13.9926388</v>
-      </c>
-      <c r="H21" t="n">
-        <v>469.8724598</v>
-      </c>
-      <c r="I21" t="n">
-        <v>93.73999999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.674881</v>
-      </c>
-      <c r="K21" t="n">
-        <v>52.43</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>519.8120273</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12.768555</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8.65868</v>
-      </c>
-      <c r="E22" t="n">
-        <v>59.1721043083866</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>14.6330439</v>
-      </c>
-      <c r="H22" t="n">
-        <v>494.4488745</v>
-      </c>
-      <c r="I22" t="n">
-        <v>95.1207068193976</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.726907</v>
-      </c>
-      <c r="K22" t="n">
-        <v>52.6833850815539</v>
-      </c>
+        <v>12.796847</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
